--- a/app/shift/model.xlsx
+++ b/app/shift/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a4356c8d9fefd57/ドキュメント/xlw-sample/app/shift/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53753" documentId="11_AD4D066CA252ABDACC1048B419D2F48C72EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{992A0567-E3DE-4E82-B110-6D0FA2BB603F}"/>
+  <xr:revisionPtr revIDLastSave="106247" documentId="11_AD4D066CA252ABDACC1048B419D2F48C72EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{837CA694-A9D7-4F54-BD5A-B6DB399DCBBB}"/>
   <bookViews>
-    <workbookView xWindow="36435" yWindow="3255" windowWidth="22470" windowHeight="11805" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24660" yWindow="4305" windowWidth="22470" windowHeight="10230" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conf" sheetId="3" r:id="rId1"/>
@@ -260,7 +260,17 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -372,6 +382,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1014,10 +1028,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F2:AJ5">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1912,21 +1926,21 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D6:AH20">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:AH5">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3031,12 +3045,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3046,20 +3060,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD705CF-DBF6-480D-ACEA-1B5D650D37D6}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="111" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="10" width="4.25" customWidth="1"/>
-    <col min="11" max="15" width="4.125" customWidth="1"/>
-    <col min="16" max="25" width="4.625" customWidth="1"/>
+    <col min="1" max="20" width="3.5" customWidth="1"/>
+    <col min="21" max="21" width="10.375" customWidth="1"/>
+    <col min="22" max="22" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:21">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3070,38 +3084,18 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="P1" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>0</v>
-      </c>
-      <c r="R1" s="2">
-        <v>1</v>
-      </c>
-      <c r="S1" s="2">
-        <v>0</v>
-      </c>
-      <c r="T1" s="2">
-        <v>0</v>
-      </c>
-      <c r="U1" s="2">
-        <v>0</v>
-      </c>
-      <c r="V1" s="2">
-        <v>1</v>
-      </c>
-      <c r="W1" s="2">
-        <v>1</v>
-      </c>
-      <c r="X1" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3112,38 +3106,18 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3154,38 +3128,18 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3196,38 +3150,18 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3238,41 +3172,505 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0</v>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <v>17</v>
+      </c>
+      <c r="S9">
+        <v>18</v>
+      </c>
+      <c r="T9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f>COUNTIF(A11:T11,1)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12:U15" si="0">COUNTIF(A12:T12,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <f>SUM(A11:A15)</f>
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:T16" si="1">SUM(B11:B15)</f>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <f>SUM(U11:U15)</f>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P1:Y5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+  <conditionalFormatting sqref="A11:J15">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+      <formula>1</formula>
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:T15">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
